--- a/xlsx/道德_intext.xlsx
+++ b/xlsx/道德_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="384">
   <si>
     <t>道德</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E7%B6%93</t>
   </si>
   <si>
-    <t>道德經</t>
+    <t>道德经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BE%B7</t>
@@ -71,31 +71,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%84%E6%83%A1</t>
   </si>
   <si>
-    <t>善惡</t>
+    <t>善恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用倫理學</t>
+    <t>应用伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物倫理學</t>
+    <t>生物伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學倫理學</t>
+    <t>医学伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境倫理學</t>
+    <t>环境伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%9D%83%E5%88%A9</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
+    <t>行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E7%9B%B8%E5%AF%B9%E4%B8%BB%E4%B9%89</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%AD%90_(%E6%9B%B8)</t>
   </si>
   <si>
-    <t>老子 (書)</t>
+    <t>老子 (书)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
@@ -305,21 +305,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
   </si>
   <si>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E9%99%BD%E4%BA%94%E8%A1%8C</t>
   </si>
   <si>
-    <t>陰陽五行</t>
+    <t>阴阳五行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BA%BA%E5%90%88%E4%B8%80</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86</t>
   </si>
   <si>
-    <t>希伯來</t>
+    <t>希伯来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD</t>
   </si>
   <si>
-    <t>伊斯蘭</t>
+    <t>伊斯兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%96%87%E5%8C%96</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF</t>
   </si>
   <si>
-    <t>耶和華</t>
+    <t>耶和华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8B%89</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95_(%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%B8)</t>
   </si>
   <si>
-    <t>法 (印度哲學)</t>
+    <t>法 (印度哲学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
@@ -407,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>台灣原住民</t>
+    <t>台湾原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
   </si>
   <si>
-    <t>習俗</t>
+    <t>习俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%BA%B2%E4%BA%94%E5%B8%B8</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%80%AB</t>
   </si>
   <si>
-    <t>五倫</t>
+    <t>五伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AF</t>
   </si>
   <si>
-    <t>堯</t>
+    <t>尧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%9C</t>
@@ -461,25 +458,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%9C%9D</t>
   </si>
   <si>
-    <t>漢朝</t>
+    <t>汉朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E7%B6%93</t>
   </si>
   <si>
-    <t>五經</t>
+    <t>五经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6%E5%AD%B8%E8%AA%AA</t>
   </si>
   <si>
-    <t>儒家學說</t>
+    <t>儒家学说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E7%B6%93</t>
   </si>
   <si>
-    <t>十三經</t>
+    <t>十三经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -491,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8_(%E7%B6%93%E5%82%B3)</t>
   </si>
   <si>
-    <t>大學 (經傳)</t>
+    <t>大学 (经传)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%84%88</t>
   </si>
   <si>
-    <t>韓愈</t>
+    <t>韩愈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E5%AD%90</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%AB%A0%E5%B8%9D</t>
   </si>
   <si>
-    <t>漢章帝</t>
+    <t>汉章帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%88%9D</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>論語</t>
+    <t>论语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E8%B7%AF</t>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%A9%A9%E5%A4%96%E5%82%B3</t>
   </si>
   <si>
-    <t>韓詩外傳</t>
+    <t>韩诗外传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9D%E7%B6%93</t>
   </si>
   <si>
-    <t>孝經</t>
+    <t>孝经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BE%E5%AD%90</t>
@@ -581,31 +578,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%AA%E6%96%87%E8%A7%A3%E5%AD%97</t>
   </si>
   <si>
-    <t>說文解字</t>
+    <t>说文解字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E8%A8%98</t>
   </si>
   <si>
-    <t>禮記</t>
+    <t>礼记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E5%82%B3</t>
   </si>
   <si>
-    <t>左傳</t>
+    <t>左传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BA%B8</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E7%B6%AD%E5%85%AB%E5%BE%B7</t>
   </si>
   <si>
-    <t>四維八德</t>
+    <t>四维八德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%A4%A7%E9%92%8A</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%88%E8%B2%9E</t>
   </si>
   <si>
-    <t>守貞</t>
+    <t>守贞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E5%8A%9E%E5%A9%9A%E5%A7%BB</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -695,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E7%A6%8F%E8%AB%96</t>
   </si>
   <si>
-    <t>幸福論</t>
+    <t>幸福论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BD%97</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教神學</t>
+    <t>基督教神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9E%E8%A8%8E</t>
   </si>
   <si>
-    <t>乞討</t>
+    <t>乞讨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%B7%A5%E4%BD%9C%E8%80%85</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E4%BA%BA%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數人暴政</t>
+    <t>多数人暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BF%E5%AD%95%E5%A5%97</t>
@@ -815,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%89%8D%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>婚前性行為</t>
+    <t>婚前性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
+    <t>堕胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E5%8F%97%E5%AD%95</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E7%BF%BC%E8%AC%80</t>
   </si>
   <si>
-    <t>柳翼謀</t>
+    <t>柳翼谋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E8%AF%AD</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%A6%AE</t>
   </si>
   <si>
-    <t>非禮</t>
+    <t>非礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B8%B8%E8%AE%B0</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%99%8E%E9%80%9A%E7%BE%A9</t>
   </si>
   <si>
-    <t>白虎通義</t>
+    <t>白虎通义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B5%E5%B2%90</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E7%B6%93%E8%A8%BB%E7%96%8F</t>
   </si>
   <si>
-    <t>十三經註疏</t>
+    <t>十三经注疏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%AD%90%E8%AF%AD%E7%B1%BB</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%9B%B8%E5%B1%80</t>
   </si>
   <si>
-    <t>中華書局</t>
+    <t>中华书局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC%E8%A7%82</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E7%AF%84%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>規範倫理學</t>
+    <t>规范伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E4%BC%A6%E7%90%86%E5%AD%A6</t>
@@ -989,31 +986,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%8F%E8%BF%B0%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>描述倫理學</t>
+    <t>描述伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>工程倫理</t>
+    <t>工程伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>專業倫理學</t>
+    <t>专业伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>性倫理</t>
+    <t>性伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB</t>
@@ -1061,13 +1058,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>共識</t>
+    <t>共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
   </si>
   <si>
-    <t>價值論</t>
+    <t>价值论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E4%B9%89</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%A7%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>德性倫理學</t>
+    <t>德性伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -2961,7 +2958,7 @@
         <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
         <v>9</v>
@@ -2987,10 +2984,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>13</v>
@@ -3016,10 +3013,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>12</v>
@@ -3045,10 +3042,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3074,10 +3071,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3103,10 +3100,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3132,10 +3129,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3161,10 +3158,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3190,10 +3187,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
@@ -3219,10 +3216,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3248,10 +3245,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3277,10 +3274,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3306,10 +3303,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3335,10 +3332,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3364,10 +3361,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3393,10 +3390,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3422,10 +3419,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3451,10 +3448,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3480,10 +3477,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3509,10 +3506,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3538,10 +3535,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3567,10 +3564,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3596,10 +3593,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3625,10 +3622,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3654,10 +3651,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3683,10 +3680,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3712,10 +3709,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3741,10 +3738,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3770,10 +3767,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>15</v>
@@ -3799,10 +3796,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3828,10 +3825,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3857,10 +3854,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3886,10 +3883,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3915,10 +3912,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3944,10 +3941,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3973,10 +3970,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4002,10 +3999,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4031,10 +4028,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4060,10 +4057,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4089,10 +4086,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4118,10 +4115,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4147,10 +4144,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4176,10 +4173,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4205,10 +4202,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4234,10 +4231,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4263,10 +4260,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -4292,10 +4289,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4321,10 +4318,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4350,10 +4347,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4379,10 +4376,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4408,10 +4405,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4437,10 +4434,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4466,10 +4463,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4495,10 +4492,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4524,10 +4521,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4553,10 +4550,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4582,10 +4579,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4611,10 +4608,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4640,10 +4637,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4669,10 +4666,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4698,10 +4695,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4727,10 +4724,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4756,10 +4753,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4785,10 +4782,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4814,10 +4811,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -4843,10 +4840,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4872,10 +4869,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4901,10 +4898,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4930,10 +4927,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4959,10 +4956,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4988,10 +4985,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5017,10 +5014,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5046,10 +5043,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5075,10 +5072,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5104,10 +5101,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5133,10 +5130,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5162,10 +5159,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5191,10 +5188,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5220,10 +5217,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5249,10 +5246,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5278,10 +5275,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5307,10 +5304,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5336,10 +5333,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5365,10 +5362,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5394,10 +5391,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5423,10 +5420,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5452,10 +5449,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>7</v>
@@ -5481,10 +5478,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5510,10 +5507,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5539,10 +5536,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5568,10 +5565,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -5597,10 +5594,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5626,10 +5623,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5655,10 +5652,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5684,10 +5681,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5713,10 +5710,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5742,10 +5739,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5771,10 +5768,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5800,10 +5797,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5829,10 +5826,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5858,10 +5855,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5887,10 +5884,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5916,10 +5913,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5945,10 +5942,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5974,10 +5971,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6003,10 +6000,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6032,10 +6029,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6061,10 +6058,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6090,10 +6087,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6119,10 +6116,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>16</v>
@@ -6177,10 +6174,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6206,10 +6203,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6235,10 +6232,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6293,10 +6290,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6322,10 +6319,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6351,10 +6348,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6409,10 +6406,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6438,10 +6435,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6467,10 +6464,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>4</v>
@@ -6525,10 +6522,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" t="s">
-        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6554,10 +6551,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
         <v>339</v>
-      </c>
-      <c r="F174" t="s">
-        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6583,10 +6580,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -6612,10 +6609,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6641,10 +6638,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6670,10 +6667,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6757,10 +6754,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>348</v>
+      </c>
+      <c r="F181" t="s">
         <v>349</v>
-      </c>
-      <c r="F181" t="s">
-        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6786,10 +6783,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>350</v>
+      </c>
+      <c r="F182" t="s">
         <v>351</v>
-      </c>
-      <c r="F182" t="s">
-        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6815,10 +6812,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
         <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6844,10 +6841,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
         <v>355</v>
-      </c>
-      <c r="F184" t="s">
-        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6873,10 +6870,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>356</v>
+      </c>
+      <c r="F185" t="s">
         <v>357</v>
-      </c>
-      <c r="F185" t="s">
-        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6902,10 +6899,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F186" t="s">
         <v>359</v>
-      </c>
-      <c r="F186" t="s">
-        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6931,10 +6928,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" t="s">
         <v>361</v>
-      </c>
-      <c r="F187" t="s">
-        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6960,10 +6957,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>362</v>
+      </c>
+      <c r="F188" t="s">
         <v>363</v>
-      </c>
-      <c r="F188" t="s">
-        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6989,10 +6986,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>364</v>
+      </c>
+      <c r="F189" t="s">
         <v>365</v>
-      </c>
-      <c r="F189" t="s">
-        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7018,10 +7015,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>366</v>
+      </c>
+      <c r="F190" t="s">
         <v>367</v>
-      </c>
-      <c r="F190" t="s">
-        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7047,10 +7044,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>368</v>
+      </c>
+      <c r="F191" t="s">
         <v>369</v>
-      </c>
-      <c r="F191" t="s">
-        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7076,10 +7073,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
         <v>371</v>
-      </c>
-      <c r="F192" t="s">
-        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7105,10 +7102,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>372</v>
+      </c>
+      <c r="F193" t="s">
         <v>373</v>
-      </c>
-      <c r="F193" t="s">
-        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7134,10 +7131,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
         <v>375</v>
-      </c>
-      <c r="F194" t="s">
-        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7163,10 +7160,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>376</v>
+      </c>
+      <c r="F195" t="s">
         <v>377</v>
-      </c>
-      <c r="F195" t="s">
-        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -7192,10 +7189,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>378</v>
+      </c>
+      <c r="F196" t="s">
         <v>379</v>
-      </c>
-      <c r="F196" t="s">
-        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7221,10 +7218,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>380</v>
+      </c>
+      <c r="F197" t="s">
         <v>381</v>
-      </c>
-      <c r="F197" t="s">
-        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7250,10 +7247,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>382</v>
+      </c>
+      <c r="F198" t="s">
         <v>383</v>
-      </c>
-      <c r="F198" t="s">
-        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>

--- a/xlsx/道德_intext.xlsx
+++ b/xlsx/道德_intext.xlsx
@@ -29,7 +29,7 @@
     <t>老子</t>
   </si>
   <si>
-    <t>政策_政策_政治_道德</t>
+    <t>体育运动_体育运动_规则_道德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E7%B6%93</t>
